--- a/show.xlsx
+++ b/show.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Frontend\tetris\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17D857E-A662-41A5-9358-70A515084376}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +35,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +343,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="15" width="7.140625" customWidth="1"/>
+    <col min="16" max="17" width="7.28515625" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" customWidth="1"/>
+    <col min="19" max="20" width="7" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" customWidth="1"/>
+    <col min="22" max="22" width="7" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" customWidth="1"/>
+    <col min="26" max="26" width="7.140625" customWidth="1"/>
+    <col min="27" max="28" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="3:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="3:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="3:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>